--- a/data/Patching.xlsx
+++ b/data/Patching.xlsx
@@ -449,6 +449,9 @@
       <c r="D3" t="str">
         <v>07:00 AM - 12:00 PM</v>
       </c>
+      <c r="E3" t="str">
+        <v>Not Completed</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -463,6 +466,9 @@
       <c r="D4" t="str">
         <v>09:00 AM - 12:00 PM</v>
       </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -477,6 +483,9 @@
       <c r="D5" t="str">
         <v>07:00 AM - 12:00 PM</v>
       </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -491,6 +500,9 @@
       <c r="D6" t="str">
         <v>09:00 AM - 12:00 PM</v>
       </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -505,6 +517,9 @@
       <c r="D7" t="str">
         <v>07:00 AM - 12:00 PM</v>
       </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -519,6 +534,9 @@
       <c r="D8" t="str">
         <v>09:00 AM - 12:00 PM</v>
       </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -533,6 +551,9 @@
       <c r="D9" t="str">
         <v>07:00 AM - 12:00 PM</v>
       </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -547,6 +568,9 @@
       <c r="D10" t="str">
         <v>09:00 AM - 12:00 PM</v>
       </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -561,6 +585,9 @@
       <c r="D11" t="str">
         <v>07:00 AM - 12:00 PM</v>
       </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -574,6 +601,9 @@
       </c>
       <c r="D12" t="str">
         <v>09:00 AM - 12:00 PM</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/data/Patching.xlsx
+++ b/data/Patching.xlsx
@@ -467,7 +467,7 @@
         <v>09:00 AM - 12:00 PM</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>Completed</v>
       </c>
     </row>
     <row r="5">

--- a/data/Patching.xlsx
+++ b/data/Patching.xlsx
@@ -467,7 +467,7 @@
         <v>09:00 AM - 12:00 PM</v>
       </c>
       <c r="E4" t="str">
-        <v>Completed</v>
+        <v>Not Completed</v>
       </c>
     </row>
     <row r="5">

--- a/data/Patching.xlsx
+++ b/data/Patching.xlsx
@@ -467,7 +467,7 @@
         <v>09:00 AM - 12:00 PM</v>
       </c>
       <c r="E4" t="str">
-        <v>Not Completed</v>
+        <v>Deferred</v>
       </c>
     </row>
     <row r="5">

--- a/data/Patching.xlsx
+++ b/data/Patching.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,12 +416,6 @@
         <v>Time</v>
       </c>
       <c r="E1" t="str">
-        <v>__EMPTY</v>
-      </c>
-      <c r="F1" t="str">
-        <v>__EMPTY_1</v>
-      </c>
-      <c r="G1" t="str">
         <v>Status</v>
       </c>
     </row>
@@ -441,9 +435,6 @@
       <c r="E2" t="str">
         <v/>
       </c>
-      <c r="F2" t="str">
-        <v/>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -461,9 +452,6 @@
       <c r="E3" t="str">
         <v/>
       </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -476,16 +464,10 @@
         <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
       </c>
       <c r="D4" t="str">
-        <v>06:23 PM - 12:00 PM</v>
+        <v>06:28 PM - 12:00 PM</v>
       </c>
       <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v>Deferred</v>
+        <v>Completed</v>
       </c>
     </row>
     <row r="5">
@@ -504,9 +486,6 @@
       <c r="E5" t="str">
         <v/>
       </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -524,9 +503,6 @@
       <c r="E6" t="str">
         <v/>
       </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -544,9 +520,6 @@
       <c r="E7" t="str">
         <v/>
       </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -564,9 +537,6 @@
       <c r="E8" t="str">
         <v/>
       </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -584,9 +554,6 @@
       <c r="E9" t="str">
         <v/>
       </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -604,9 +571,6 @@
       <c r="E10" t="str">
         <v/>
       </c>
-      <c r="F10" t="str">
-        <v/>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -624,9 +588,6 @@
       <c r="E11" t="str">
         <v/>
       </c>
-      <c r="F11" t="str">
-        <v/>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -644,13 +605,10 @@
       <c r="E12" t="str">
         <v/>
       </c>
-      <c r="F12" t="str">
-        <v/>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/Patching.xlsx
+++ b/data/Patching.xlsx
@@ -1,41 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Email Server\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C890CE71-6DA2-440E-A4C1-DE824C25F129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Scheduled date</t>
+  </si>
+  <si>
+    <t>EmailAddresses</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Product A</t>
+  </si>
+  <si>
+    <t>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</t>
+  </si>
+  <si>
+    <t>09:00 AM - 12:00 PM</t>
+  </si>
+  <si>
+    <t>Product B</t>
+  </si>
+  <si>
+    <t>07:00 AM - 12:00 PM</t>
+  </si>
+  <si>
+    <t>Product C</t>
+  </si>
+  <si>
+    <t>Product D</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Product E</t>
+  </si>
+  <si>
+    <t>Product F</t>
+  </si>
+  <si>
+    <t>Product G</t>
+  </si>
+  <si>
+    <t>Product H</t>
+  </si>
+  <si>
+    <t>Product I</t>
+  </si>
+  <si>
+    <t>Product J</t>
+  </si>
+  <si>
+    <t>Product K</t>
+  </si>
+  <si>
+    <t>06:53 PM - 12:00 PM</t>
+  </si>
+  <si>
+    <t>12:52 PM - 2:00 PM</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +122,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,219 +461,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Product name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Scheduled date</v>
-      </c>
-      <c r="C1" t="str">
-        <v>EmailAddresses</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Time</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Status</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Product A</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
         <v>45334</v>
       </c>
-      <c r="C2" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D2" t="str">
-        <v>09:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Deferred</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Product B</v>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
         <v>45334</v>
       </c>
-      <c r="C3" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D3" t="str">
-        <v>07:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Not Completed</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Product C</v>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
         <v>45363</v>
       </c>
-      <c r="C4" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D4" t="str">
-        <v>09:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Deferred</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Product D</v>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
       <c r="B5">
         <v>45394</v>
       </c>
-      <c r="C5" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D5" t="str">
-        <v>07:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Product E</v>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
       </c>
       <c r="B6">
         <v>45424</v>
       </c>
-      <c r="C6" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D6" t="str">
-        <v>09:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Product F</v>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
       </c>
       <c r="B7">
         <v>45455</v>
       </c>
-      <c r="C7" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D7" t="str">
-        <v>07:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Product G</v>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
       </c>
       <c r="B8">
         <v>45485</v>
       </c>
-      <c r="C8" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D8" t="str">
-        <v>09:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E8" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Product H</v>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
       </c>
       <c r="B9">
         <v>45516</v>
       </c>
-      <c r="C9" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D9" t="str">
-        <v>07:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Product I</v>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
       </c>
       <c r="B10">
         <v>45547</v>
       </c>
-      <c r="C10" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D10" t="str">
-        <v>09:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E10" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Product J</v>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
       </c>
       <c r="B11">
         <v>45577</v>
       </c>
-      <c r="C11" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D11" t="str">
-        <v>07:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E11" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Product K</v>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
       </c>
       <c r="B12">
         <v>45608</v>
       </c>
-      <c r="C12" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D12" t="str">
-        <v>09:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E12" t="str">
-        <v/>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E12"/>
+    <ignoredError sqref="A1:E1 A6:E12 A4:C4 A3:D3 A2:D2 A5:C5 E5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/Patching.xlsx
+++ b/data/Patching.xlsx
@@ -1,41 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Email Server\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E577C1-C52D-451E-82BA-DB653A88E866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Scheduled date</t>
+  </si>
+  <si>
+    <t>EmailAddresses</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>MessageSent</t>
+  </si>
+  <si>
+    <t>Product A</t>
+  </si>
+  <si>
+    <t>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</t>
+  </si>
+  <si>
+    <t>09:00 AM - 12:00 PM</t>
+  </si>
+  <si>
+    <t>Product B</t>
+  </si>
+  <si>
+    <t>01:00 PM - 2:00 PM</t>
+  </si>
+  <si>
+    <t>Product C</t>
+  </si>
+  <si>
+    <t>Product D</t>
+  </si>
+  <si>
+    <t>03:03 PM - 4:00 PM</t>
+  </si>
+  <si>
+    <t>Not Completed</t>
+  </si>
+  <si>
+    <t>Product E</t>
+  </si>
+  <si>
+    <t>Product F</t>
+  </si>
+  <si>
+    <t>Product G</t>
+  </si>
+  <si>
+    <t>Product H</t>
+  </si>
+  <si>
+    <t>07:00 AM - 12:00 PM</t>
+  </si>
+  <si>
+    <t>Product I</t>
+  </si>
+  <si>
+    <t>Product J</t>
+  </si>
+  <si>
+    <t>Product K</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +125,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,219 +464,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Product name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Scheduled date</v>
-      </c>
-      <c r="C1" t="str">
-        <v>EmailAddresses</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Time</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Status</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Product A</v>
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>45334</v>
-      </c>
-      <c r="C2" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D2" t="str">
-        <v>09:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Product B</v>
+        <v>45628</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>45334</v>
-      </c>
-      <c r="C3" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D3" t="str">
-        <v>06:27 PM - 7:00 PM</v>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Product C</v>
+        <v>45628</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>45363</v>
-      </c>
-      <c r="C4" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D4" t="str">
-        <v>06:28 PM - 12:00 PM</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Completed</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Product D</v>
+        <v>45629</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>45394</v>
-      </c>
-      <c r="C5" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D5" t="str">
-        <v>06:21 PM - 12:00 PM</v>
-      </c>
-      <c r="E5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Product E</v>
+        <v>45630</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>45424</v>
-      </c>
-      <c r="C6" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D6" t="str">
-        <v>09:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Product F</v>
+        <v>45631</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>45455</v>
-      </c>
-      <c r="C7" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D7" t="str">
-        <v>07:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Product G</v>
+        <v>45632</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>45485</v>
-      </c>
-      <c r="C8" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D8" t="str">
-        <v>09:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E8" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Product H</v>
+        <v>45633</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>45516</v>
-      </c>
-      <c r="C9" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D9" t="str">
-        <v>07:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Product I</v>
+        <v>45634</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>45547</v>
-      </c>
-      <c r="C10" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D10" t="str">
-        <v>09:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E10" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Product J</v>
+        <v>45635</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>45577</v>
-      </c>
-      <c r="C11" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D11" t="str">
-        <v>07:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E11" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Product K</v>
+        <v>45636</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>45608</v>
-      </c>
-      <c r="C12" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
-      </c>
-      <c r="D12" t="str">
-        <v>09:00 AM - 12:00 PM</v>
-      </c>
-      <c r="E12" t="str">
-        <v/>
+        <v>45637</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E12"/>
+    <ignoredError sqref="A1:F5 A7:F12 A6 C6:F6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/Patching.xlsx
+++ b/data/Patching.xlsx
@@ -1,101 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Email Server\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E577C1-C52D-451E-82BA-DB653A88E866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
-  <si>
-    <t>Product name</t>
-  </si>
-  <si>
-    <t>Scheduled date</t>
-  </si>
-  <si>
-    <t>EmailAddresses</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>MessageSent</t>
-  </si>
-  <si>
-    <t>Product A</t>
-  </si>
-  <si>
-    <t>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</t>
-  </si>
-  <si>
-    <t>09:00 AM - 12:00 PM</t>
-  </si>
-  <si>
-    <t>Product B</t>
-  </si>
-  <si>
-    <t>01:00 PM - 2:00 PM</t>
-  </si>
-  <si>
-    <t>Product C</t>
-  </si>
-  <si>
-    <t>Product D</t>
-  </si>
-  <si>
-    <t>03:03 PM - 4:00 PM</t>
-  </si>
-  <si>
-    <t>Not Completed</t>
-  </si>
-  <si>
-    <t>Product E</t>
-  </si>
-  <si>
-    <t>Product F</t>
-  </si>
-  <si>
-    <t>Product G</t>
-  </si>
-  <si>
-    <t>Product H</t>
-  </si>
-  <si>
-    <t>07:00 AM - 12:00 PM</t>
-  </si>
-  <si>
-    <t>Product I</t>
-  </si>
-  <si>
-    <t>Product J</t>
-  </si>
-  <si>
-    <t>Product K</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -464,199 +396,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Product name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Scheduled date</v>
+      </c>
+      <c r="C1" t="str">
+        <v>EmailAddresses</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Time</v>
+      </c>
+      <c r="E1" t="str">
+        <v>MessageSent</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Product A</v>
       </c>
       <c r="B2">
         <v>45628</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
+      <c r="C2" t="str">
+        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+      </c>
+      <c r="D2" t="str">
+        <v>09:00 AM - 12:00 PM</v>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Product B</v>
       </c>
       <c r="B3">
         <v>45628</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
+      <c r="C3" t="str">
+        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>01:00 PM - 2:00 PM</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Product C</v>
       </c>
       <c r="B4">
         <v>45629</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
+      <c r="C4" t="str">
+        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>01:00 PM - 2:00 PM</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Product D</v>
       </c>
       <c r="B5">
         <v>45630</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="b">
+      <c r="C5" t="str">
+        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>03:52 PM - 4:00 PM</v>
+      </c>
+      <c r="E5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>15</v>
+      <c r="F5" t="str">
+        <v>Deferred</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Product E</v>
       </c>
       <c r="B6">
-        <v>45631</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>16</v>
+        <v>45630</v>
+      </c>
+      <c r="C6" t="str">
+        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>03:53 PM - 4:00 PM</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Product F</v>
       </c>
       <c r="B7">
-        <v>45632</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>17</v>
+        <v>45630</v>
+      </c>
+      <c r="C7" t="str">
+        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>03:54 PM - 4:00 PM</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Product G</v>
       </c>
       <c r="B8">
         <v>45633</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>18</v>
+      <c r="C8" t="str">
+        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>09:00 AM - 12:00 PM</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Product H</v>
       </c>
       <c r="B9">
         <v>45634</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>20</v>
+      <c r="C9" t="str">
+        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+      </c>
+      <c r="D9" t="str">
+        <v>07:00 AM - 12:00 PM</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Product I</v>
       </c>
       <c r="B10">
         <v>45635</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>21</v>
+      <c r="C10" t="str">
+        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>09:00 AM - 12:00 PM</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Product J</v>
       </c>
       <c r="B11">
         <v>45636</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>22</v>
+      <c r="C11" t="str">
+        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+      </c>
+      <c r="D11" t="str">
+        <v>07:00 AM - 12:00 PM</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Product K</v>
       </c>
       <c r="B12">
         <v>45637</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
+      <c r="C12" t="str">
+        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+      </c>
+      <c r="D12" t="str">
+        <v>09:00 AM - 12:00 PM</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F5 A7:F12 A6 C6:F6" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/Patching.xlsx
+++ b/data/Patching.xlsx
@@ -397,224 +397,4422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Product name</v>
+        <v>Phase</v>
       </c>
       <c r="B1" t="str">
-        <v>Scheduled date</v>
+        <v>Product_Name</v>
       </c>
       <c r="C1" t="str">
-        <v>EmailAddresses</v>
+        <v>Environment</v>
       </c>
       <c r="D1" t="str">
-        <v>Time</v>
+        <v>Schedule_Frequency_Day</v>
       </c>
       <c r="E1" t="str">
+        <v>Schedule_Freq_Monthly_Quaterly</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Occurance( Week)</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Scheduled_Down_Time</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Patching_status</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Patching_Run_Date</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Email_Addresses</v>
+      </c>
+      <c r="K1" t="str">
+        <v>SD_Ticket</v>
+      </c>
+      <c r="L1" t="str">
         <v>MessageSent</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Status</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Product A</v>
-      </c>
-      <c r="B2">
-        <v>45628</v>
+        <v>F&amp;B test</v>
+      </c>
+      <c r="B2" t="str">
+        <v>F&amp;B</v>
       </c>
       <c r="C2" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+        <v>Dev</v>
       </c>
       <c r="D2" t="str">
-        <v>09:00 AM - 12:00 PM</v>
+        <v>Wednesday</v>
       </c>
       <c r="E2" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>11:30 AM - 12:30 PM</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I2">
+        <v>45394</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Product B</v>
-      </c>
-      <c r="B3">
-        <v>45628</v>
+        <v>F&amp;B EastUS2 - Schedule 1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>F&amp;B</v>
       </c>
       <c r="C3" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+        <v>Prod</v>
       </c>
       <c r="D3" t="str">
-        <v>01:00 PM - 2:00 PM</v>
+        <v>Saturday</v>
       </c>
       <c r="E3" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <v xml:space="preserve">08:30 AM - 12:30 PM </v>
+      </c>
+      <c r="H3" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I3">
+        <v>45485</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Product C</v>
-      </c>
-      <c r="B4">
-        <v>45629</v>
+        <v>F&amp;B EastUS2 - Schedule 3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>F&amp;B</v>
       </c>
       <c r="C4" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+        <v>Prod</v>
       </c>
       <c r="D4" t="str">
-        <v>01:00 PM - 2:00 PM</v>
+        <v>Monday</v>
       </c>
       <c r="E4" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <v xml:space="preserve">08:30 AM - 12:30 PM </v>
+      </c>
+      <c r="H4" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I4">
+        <v>45334</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Product D</v>
-      </c>
-      <c r="B5">
-        <v>45630</v>
+        <v>F&amp;B- IB Test</v>
+      </c>
+      <c r="B5" t="str">
+        <v>F&amp;B</v>
       </c>
       <c r="C5" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+        <v>Dev</v>
       </c>
       <c r="D5" t="str">
-        <v>03:52 PM - 4:00 PM</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Deferred</v>
+        <v>Thursday</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <v xml:space="preserve">10:30 AM - 12:30 PM  </v>
+      </c>
+      <c r="H5" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I5">
+        <v>45638</v>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Product E</v>
-      </c>
-      <c r="B6">
-        <v>45630</v>
+        <v xml:space="preserve">F&amp;B WestUS2-Schedule 1            </v>
+      </c>
+      <c r="B6" t="str">
+        <v>F&amp;B</v>
       </c>
       <c r="C6" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+        <v>Prod</v>
       </c>
       <c r="D6" t="str">
-        <v>03:53 PM - 4:00 PM</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
+        <v>Saturday</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <v>01:30 PM - 03:30 PM</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I6">
+        <v>45640</v>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Product F</v>
-      </c>
-      <c r="B7">
-        <v>45630</v>
+        <v>F&amp;B WestUS2- Schedule 2</v>
+      </c>
+      <c r="B7" t="str">
+        <v>F&amp;B</v>
       </c>
       <c r="C7" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+        <v>Prod</v>
       </c>
       <c r="D7" t="str">
-        <v>03:54 PM - 4:00 PM</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
+        <v>Sunday</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <v>01:30 PM - 03:30 PM</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I7">
+        <v>45516</v>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Product G</v>
-      </c>
-      <c r="B8">
-        <v>45633</v>
+        <v>F&amp;B DC's Odd Patching</v>
+      </c>
+      <c r="B8" t="str">
+        <v>F&amp;B</v>
       </c>
       <c r="C8" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+        <v>Prod</v>
       </c>
       <c r="D8" t="str">
-        <v>09:00 AM - 12:00 PM</v>
+        <v>Wednesday</v>
       </c>
       <c r="E8" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="str">
+        <v>11:30 AM - 12:30 PM</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I8">
+        <v>45644</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Product H</v>
-      </c>
-      <c r="B9">
-        <v>45634</v>
+        <v xml:space="preserve">F&amp;B DC's Even Patching </v>
+      </c>
+      <c r="B9" t="str">
+        <v>F&amp;B</v>
       </c>
       <c r="C9" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+        <v>Prod</v>
       </c>
       <c r="D9" t="str">
-        <v>07:00 AM - 12:00 PM</v>
+        <v>Friday</v>
       </c>
       <c r="E9" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="str">
+        <v>08:30 AM - 10:30 AM</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I9">
+        <v>45646</v>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Product I</v>
-      </c>
-      <c r="B10">
-        <v>45635</v>
+        <v>F&amp;B BCNAV Docmentation Server Patching</v>
+      </c>
+      <c r="B10" t="str">
+        <v>F&amp;B</v>
       </c>
       <c r="C10" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+        <v>Dev</v>
       </c>
       <c r="D10" t="str">
-        <v>09:00 AM - 12:00 PM</v>
+        <v>Friday</v>
       </c>
       <c r="E10" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="str">
+        <v>08:30 AM - 12:30 PM</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I10">
+        <v>45646</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Product J</v>
-      </c>
-      <c r="B11">
-        <v>45636</v>
+        <v>F&amp;B IB Prod</v>
+      </c>
+      <c r="B11" t="str">
+        <v>F&amp;B</v>
       </c>
       <c r="C11" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+        <v>Prod</v>
       </c>
       <c r="D11" t="str">
-        <v>07:00 AM - 12:00 PM</v>
+        <v>Saturday</v>
       </c>
       <c r="E11" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="str">
+        <v>08:30 AM - 12:30 PM</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I11">
+        <v>45647</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Product K</v>
-      </c>
-      <c r="B12">
-        <v>45637</v>
+        <v>F&amp;B EastUS2 - Schedule 2</v>
+      </c>
+      <c r="B12" t="str">
+        <v>F&amp;B</v>
       </c>
       <c r="C12" t="str">
-        <v>vishnudarrshan.orp@aptean.com,vdeditz22@gmail.com</v>
+        <v>Prod</v>
       </c>
       <c r="D12" t="str">
-        <v>09:00 AM - 12:00 PM</v>
+        <v>Saturday</v>
       </c>
       <c r="E12" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="str">
+        <v xml:space="preserve">08:30 AM - 12:30 PM </v>
+      </c>
+      <c r="H12" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I12">
+        <v>45647</v>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>DIN SaaS Production Patching</v>
+      </c>
+      <c r="B13" t="str">
+        <v>DIN</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="str">
+        <v>04:30 AM - 06:30 AM</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I13">
+        <v>45641</v>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>F&amp;B EU,UK</v>
+      </c>
+      <c r="B14" t="str">
+        <v>F&amp;B</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Saturday</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Last</v>
+      </c>
+      <c r="G14" t="str">
+        <v>12:30 PM - 02:30 PM</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I14">
+        <v>45654</v>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>FoodWare EastUs2</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Foodware</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Saturday</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Last</v>
+      </c>
+      <c r="G15" t="str">
+        <v>01:00 PM - 02:00 PM</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I15">
+        <v>45654</v>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>workwise  dev</v>
+      </c>
+      <c r="B16" t="str">
+        <v xml:space="preserve">workwise </v>
+      </c>
+      <c r="C16" t="str">
+        <v>dev</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F16" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G16" t="str">
+        <v xml:space="preserve">10:30 AM - 12:30 PM </v>
+      </c>
+      <c r="H16" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I16">
+        <v>45639</v>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v xml:space="preserve">Workwise phase 1 </v>
+      </c>
+      <c r="B17" t="str">
+        <v xml:space="preserve">workwise </v>
+      </c>
+      <c r="C17" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F17" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G17" t="str">
+        <v xml:space="preserve">09:30 AM - 01:30 PM  </v>
+      </c>
+      <c r="H17" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I17">
+        <v>45646</v>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Workwise phase 2</v>
+      </c>
+      <c r="B18" t="str">
+        <v xml:space="preserve">workwise </v>
+      </c>
+      <c r="C18" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F18" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G18" t="str">
+        <v xml:space="preserve">09:30 AM - 01:30 PM </v>
+      </c>
+      <c r="H18" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I18">
+        <v>45646</v>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Workwise phase 3</v>
+      </c>
+      <c r="B19" t="str">
+        <v xml:space="preserve">workwise </v>
+      </c>
+      <c r="C19" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F19" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G19" t="str">
+        <v xml:space="preserve">03:30 PM - 07:30 PM </v>
+      </c>
+      <c r="H19" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I19">
+        <v>45648</v>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Traverse &amp; Global Services dev</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Traverse &amp; Global services</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Dev</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F20" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G20" t="str">
+        <v xml:space="preserve">09:30 AM - 12:30 PM  </v>
+      </c>
+      <c r="H20" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I20">
+        <v>45644</v>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Traverse &amp; Global Services Prod</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Traverse &amp; Global services</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F21" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G21" t="str">
+        <v xml:space="preserve">09:30 AM - 01:30 PM </v>
+      </c>
+      <c r="H21" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I21">
+        <v>45651</v>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>M2M 7.5 Dev</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Made2Manage</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Dev</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Tuesday</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F22" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G22" t="str">
+        <v xml:space="preserve">09:30 AM - 12:30 PM </v>
+      </c>
+      <c r="H22" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I22">
+        <v>45643</v>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>M2M 7.5 VIP &amp; SAAS PROD</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Made2Manage</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F23" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G23" t="str">
+        <v xml:space="preserve">09:30 AM - 01:30 PM </v>
+      </c>
+      <c r="H23" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I23">
+        <v>45516</v>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>M2M 8.0 Dev</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Made2Manage</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Dev</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F24" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G24" t="str">
+        <v xml:space="preserve">09:30 AM - 01:30 PM </v>
+      </c>
+      <c r="H24" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I24">
+        <v>45641</v>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>M2M 8.0 prod</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Made2Manage</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F25" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G25" t="str">
+        <v xml:space="preserve">03:24 PM - 04:30 PM </v>
+      </c>
+      <c r="H25" t="str">
+        <v>Deferred</v>
+      </c>
+      <c r="I25">
+        <v>45631</v>
+      </c>
+      <c r="J25" t="str">
+        <v>vishnudarrshan.orp@aptean.com</v>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v xml:space="preserve">Nextwave DC ODD </v>
+      </c>
+      <c r="B26" t="str">
+        <v>Shared servers</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Tuesday</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F26" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G26" t="str">
+        <v xml:space="preserve">08:00 AM - 10:30 AM </v>
+      </c>
+      <c r="H26" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I26">
+        <v>45643</v>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Nextwave DC EVEN</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Shared servers</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F27" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G27" t="str">
+        <v xml:space="preserve">08:00 AM - 10:30 AM </v>
+      </c>
+      <c r="H27" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I27">
+        <v>45644</v>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Intuitive dev</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Intuitive</v>
+      </c>
+      <c r="C28" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D28" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="G28" t="str">
+        <v xml:space="preserve">11:30 AM - 01:30 PM  </v>
+      </c>
+      <c r="H28" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I28">
+        <v>45639</v>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Intuitive PROD</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Intuitive</v>
+      </c>
+      <c r="C29" t="str">
+        <v>PROD</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F29" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G29" t="str">
+        <v xml:space="preserve">10:30 AM - 02:30 PM </v>
+      </c>
+      <c r="H29" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I29">
+        <v>45641</v>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>PPG dev</v>
+      </c>
+      <c r="B30" t="str">
+        <v>PPG</v>
+      </c>
+      <c r="C30" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D30" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F30" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G30" t="str">
+        <v xml:space="preserve">10:30 AM - 12:30 PM  </v>
+      </c>
+      <c r="H30" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I30">
+        <v>45644</v>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>PPG Prod</v>
+      </c>
+      <c r="B31" t="str">
+        <v>PPG</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F31" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G31" t="str">
+        <v xml:space="preserve">10:30 AM - 02:30 PM </v>
+      </c>
+      <c r="H31" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I31">
+        <v>45651</v>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Axis Dev</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Axis</v>
+      </c>
+      <c r="C32" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D32" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="G32" t="str">
+        <v xml:space="preserve">09:30 AM - 01:30 PM </v>
+      </c>
+      <c r="H32" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I32">
+        <v>45638</v>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Axis PROD</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Axis</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F33" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G33" t="str">
+        <v xml:space="preserve">09:30 AM - 01:30 PM </v>
+      </c>
+      <c r="H33" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I33">
+        <v>45644</v>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Ross dev</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Ross</v>
+      </c>
+      <c r="C34" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D34" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F34" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="G34" t="str">
+        <v xml:space="preserve">09:30 AM - 11:30 AM  </v>
+      </c>
+      <c r="H34" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I34">
+        <v>45639</v>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Ross UNC patching</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Ross</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F35" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="G35" t="str">
+        <v xml:space="preserve">12:30 PM - 01:30 PM </v>
+      </c>
+      <c r="H35" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I35">
+        <v>45516</v>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Ross Wegmans Patching</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Ross</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F36" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="G36" t="str">
+        <v xml:space="preserve">10:30 PM - 12:30 AM </v>
+      </c>
+      <c r="H36" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I36">
+        <v>45516</v>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Ross Ask chemicals Patching</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Ross</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F37" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="G37" t="str">
+        <v xml:space="preserve">12:30 AM - 01:30 AM </v>
+      </c>
+      <c r="H37" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I37">
+        <v>45516</v>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Ross Kettle cuisine Patching</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Ross</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F38" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G38" t="str">
+        <v xml:space="preserve">02:30 PM - 03:00 PM </v>
+      </c>
+      <c r="H38" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I38">
+        <v>45641</v>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Ross Texwipe patching</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Ross</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F39" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G39" t="str">
+        <v xml:space="preserve">11:30 AM - 01:30 PM  </v>
+      </c>
+      <c r="H39" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I39">
+        <v>45641</v>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+      <c r="L39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Ross phase 1 patching</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Ross</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Monday</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F40" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G40" t="str">
+        <v xml:space="preserve">09:30 AM - 01:30 PM  </v>
+      </c>
+      <c r="H40" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I40">
+        <v>45642</v>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Ross haloo foods patching</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Ross</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Saturday</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F41" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G41" t="str">
+        <v xml:space="preserve">11:30 PM - 01:30AM </v>
+      </c>
+      <c r="H41" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I41">
+        <v>45654</v>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Ross phase 2 patching</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Ross</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Monday</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F42" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G42" t="str">
+        <v xml:space="preserve">09:30 AM - 01:30 PM  </v>
+      </c>
+      <c r="H42" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I42">
+        <v>45642</v>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+      <c r="L42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>API Pro Dev OS Patching</v>
+      </c>
+      <c r="B43" t="str">
+        <v>API Pro</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Dev</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Tuesday</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F43" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G43" t="str">
+        <v xml:space="preserve">08:30 AM - 12:30 PM </v>
+      </c>
+      <c r="H43" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I43">
+        <v>45643</v>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+      <c r="L43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>API Pro SaaS OS Patching</v>
+      </c>
+      <c r="B44" t="str">
+        <v>API Pro</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Tuesday</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F44" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G44" t="str">
+        <v>08:30 AM - 12:30 PM</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I44">
+        <v>45650</v>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Elucid Dev Patching</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Elucid</v>
+      </c>
+      <c r="C45" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D45" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F45" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G45" t="str">
+        <v>10:30 AM - 12:30 PM</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I45">
+        <v>45638</v>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+      <c r="L45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Elucid-SaaS Patching</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Elucid</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F46" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G46" t="str">
+        <v>07:00 AM - 09:00 AM</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I46">
+        <v>45645</v>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>One Plan Patching</v>
+      </c>
+      <c r="B47" t="str">
+        <v>One Plan</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Monday</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F47" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G47" t="str">
+        <v>08:30 AM - 10:30 AM</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I47">
+        <v>45649</v>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>EAM Production Patching</v>
+      </c>
+      <c r="B48" t="str">
+        <v>EAM</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F48" t="str">
+        <v xml:space="preserve">1st </v>
+      </c>
+      <c r="G48" t="str">
+        <v>10:30 AM - 01:30 PM</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I48">
+        <v>45394</v>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>EAM EU Production Patching</v>
+      </c>
+      <c r="B49" t="str">
+        <v>EAM</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F49" t="str">
+        <v xml:space="preserve">1st </v>
+      </c>
+      <c r="G49" t="str">
+        <v>06:00 AM - 09:00 AM</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I49">
+        <v>45394</v>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <v/>
+      </c>
+      <c r="L49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>EAM Dev OS Patching</v>
+      </c>
+      <c r="B50" t="str">
+        <v>EAM</v>
+      </c>
+      <c r="C50" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D50" t="str">
+        <v>Tuesday</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F50" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G50" t="str">
+        <v>04:30 AM - 08:30 AM</v>
+      </c>
+      <c r="H50" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I50">
+        <v>45643</v>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <v/>
+      </c>
+      <c r="L50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Factory SaaS Patching</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Factory</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Monday</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F51" t="str">
+        <v xml:space="preserve">1st </v>
+      </c>
+      <c r="G51" t="str">
+        <v>09:30 AM - 01:30 PM</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I51">
+        <v>45334</v>
+      </c>
+      <c r="J51" t="str">
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <v/>
+      </c>
+      <c r="L51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Factory Dev Patching</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Factory</v>
+      </c>
+      <c r="C52" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D52" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F52" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G52" t="str">
+        <v>09:30 AM - 01:30 PM</v>
+      </c>
+      <c r="H52" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I52">
+        <v>45651</v>
+      </c>
+      <c r="J52" t="str">
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <v/>
+      </c>
+      <c r="L52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Factory SaaS EMEA Patching</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Factory</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Monday</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F53" t="str">
+        <v xml:space="preserve">1st </v>
+      </c>
+      <c r="G53" t="str">
+        <v>07:30 AM - 09:30 AM</v>
+      </c>
+      <c r="H53" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I53">
+        <v>45334</v>
+      </c>
+      <c r="J53" t="str">
+        <v/>
+      </c>
+      <c r="K53" t="str">
+        <v/>
+      </c>
+      <c r="L53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Factory SaaS Melbourne Patching</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Factory</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F54" t="str">
+        <v xml:space="preserve">1st </v>
+      </c>
+      <c r="G54" t="str">
+        <v>07:30 PM - 09:30 PM</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I54">
+        <v>45303</v>
+      </c>
+      <c r="J54" t="str">
+        <v/>
+      </c>
+      <c r="K54" t="str">
+        <v/>
+      </c>
+      <c r="L54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>IRMS Production Patching</v>
+      </c>
+      <c r="B55" t="str">
+        <v>IRMS</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Quartely</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Last</v>
+      </c>
+      <c r="G55" t="str">
+        <v>06:30 PM - 10:30 PM</v>
+      </c>
+      <c r="H55" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I55" t="str">
+        <v>NA</v>
+      </c>
+      <c r="J55" t="str">
+        <v/>
+      </c>
+      <c r="K55" t="str">
+        <v/>
+      </c>
+      <c r="L55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>IRMS Dev OS Patching</v>
+      </c>
+      <c r="B56" t="str">
+        <v>IRMS</v>
+      </c>
+      <c r="C56" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D56" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F56" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G56" t="str">
+        <v>09:30 AM - 11:30 AM</v>
+      </c>
+      <c r="H56" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I56">
+        <v>45644</v>
+      </c>
+      <c r="J56" t="str">
+        <v/>
+      </c>
+      <c r="K56" t="str">
+        <v/>
+      </c>
+      <c r="L56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Apprise POC Servers</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Apprise</v>
+      </c>
+      <c r="C57" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D57" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F57" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G57" t="str">
+        <v>11:00 AM - 01:00 PM</v>
+      </c>
+      <c r="H57" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I57">
+        <v>45639</v>
+      </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+      <c r="K57" t="str">
+        <v/>
+      </c>
+      <c r="L57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Apprise Phase 1 Patching</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Apprise</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F58" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G58" t="str">
+        <v>11:00 AM - 03:00 PM</v>
+      </c>
+      <c r="H58" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I58">
+        <v>45646</v>
+      </c>
+      <c r="J58" t="str">
+        <v/>
+      </c>
+      <c r="K58" t="str">
+        <v/>
+      </c>
+      <c r="L58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Apprise Phase 1AddoPlay Patching</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Apprise</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F59" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G59" t="str">
+        <v>12:00 AM - 02:00 AM</v>
+      </c>
+      <c r="H59" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I59">
+        <v>45646</v>
+      </c>
+      <c r="J59" t="str">
+        <v/>
+      </c>
+      <c r="K59" t="str">
+        <v/>
+      </c>
+      <c r="L59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Apprise Phase 1 Beardowns Patching</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Apprise</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F60" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G60" t="str">
+        <v>04:00 PM - 05:30 PM</v>
+      </c>
+      <c r="H60" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I60">
+        <v>45646</v>
+      </c>
+      <c r="J60" t="str">
+        <v/>
+      </c>
+      <c r="K60" t="str">
+        <v/>
+      </c>
+      <c r="L60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Apprise Phase 2 Patching</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Apprise</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Monday</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F61" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G61" t="str">
+        <v>08:30 AM - 10:30 AM</v>
+      </c>
+      <c r="H61" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I61">
+        <v>45642</v>
+      </c>
+      <c r="J61" t="str">
+        <v/>
+      </c>
+      <c r="K61" t="str">
+        <v/>
+      </c>
+      <c r="L61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Apprise Phase 3 Patching</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Apprise</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F62" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G62" t="str">
+        <v>11:00 AM - 03:00 PM</v>
+      </c>
+      <c r="H62" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I62">
+        <v>45653</v>
+      </c>
+      <c r="J62" t="str">
+        <v/>
+      </c>
+      <c r="K62" t="str">
+        <v/>
+      </c>
+      <c r="L62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Apprise Phase 4 Patching</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Apprise</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Saturday</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Last</v>
+      </c>
+      <c r="G63" t="str">
+        <v>11:00 AM - 03:00 PM</v>
+      </c>
+      <c r="H63" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I63">
+        <v>45654</v>
+      </c>
+      <c r="J63" t="str">
+        <v/>
+      </c>
+      <c r="K63" t="str">
+        <v/>
+      </c>
+      <c r="L63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Apprise Meyer Patching</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Apprise</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Saturday</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F64" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G64" t="str">
+        <v>11:00 AM - 01:00 PM</v>
+      </c>
+      <c r="H64" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I64">
+        <v>45647</v>
+      </c>
+      <c r="J64" t="str">
+        <v/>
+      </c>
+      <c r="K64" t="str">
+        <v/>
+      </c>
+      <c r="L64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Assetpoint DW</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Assetpoint</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F65" t="str">
+        <v xml:space="preserve">1st </v>
+      </c>
+      <c r="G65" t="str">
+        <v>09:00 PM - 10:00 PM</v>
+      </c>
+      <c r="H65" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I65">
+        <v>45394</v>
+      </c>
+      <c r="J65" t="str">
+        <v/>
+      </c>
+      <c r="K65" t="str">
+        <v/>
+      </c>
+      <c r="L65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Assetpoint Prod No DB Patching</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Assetpoint</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F66" t="str">
+        <v xml:space="preserve">1st </v>
+      </c>
+      <c r="G66" t="str">
+        <v>10:30 AM - 02:30 PM</v>
+      </c>
+      <c r="H66" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I66">
+        <v>45394</v>
+      </c>
+      <c r="J66" t="str">
+        <v/>
+      </c>
+      <c r="K66" t="str">
+        <v/>
+      </c>
+      <c r="L66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Assetpoint Dev Patching</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Assetpoint</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Dev</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F67" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G67" t="str">
+        <v>08:00 AM - 10:00 AM</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I67">
+        <v>45608</v>
+      </c>
+      <c r="J67" t="str">
+        <v/>
+      </c>
+      <c r="K67" t="str">
+        <v/>
+      </c>
+      <c r="L67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Assetpoint DR No DB Patching</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Assetpoint</v>
+      </c>
+      <c r="C68" t="str">
+        <v>DR</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F68" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G68" t="str">
+        <v>10:30 AM - 01:30 PM</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I68">
+        <v>45644</v>
+      </c>
+      <c r="J68" t="str">
+        <v/>
+      </c>
+      <c r="K68" t="str">
+        <v/>
+      </c>
+      <c r="L68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>AssetPoint Production Environment Windows OS Patching DBs</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Assetpoint</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Saturday</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Quartely</v>
+      </c>
+      <c r="F69" t="str">
+        <v xml:space="preserve">1st </v>
+      </c>
+      <c r="G69" t="str">
+        <v>10:30 AM - 01:30 PM</v>
+      </c>
+      <c r="H69" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I69" t="str">
+        <v>NA</v>
+      </c>
+      <c r="J69" t="str">
+        <v/>
+      </c>
+      <c r="K69" t="str">
+        <v/>
+      </c>
+      <c r="L69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Assetpoint DR with DB Patching</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Assetpoint</v>
+      </c>
+      <c r="C70" t="str">
+        <v>DR</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Quartely</v>
+      </c>
+      <c r="F70" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G70" t="str">
+        <v>10:30 AM - 01:30 PM</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I70" t="str">
+        <v>NA</v>
+      </c>
+      <c r="J70" t="str">
+        <v/>
+      </c>
+      <c r="K70" t="str">
+        <v/>
+      </c>
+      <c r="L70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>SRE Jedi DC Odd Patching</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Shared servers</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Last</v>
+      </c>
+      <c r="G71" t="str">
+        <v>09:30 AM - 12:30 PM</v>
+      </c>
+      <c r="H71" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I71">
+        <v>45651</v>
+      </c>
+      <c r="J71" t="str">
+        <v/>
+      </c>
+      <c r="K71" t="str">
+        <v/>
+      </c>
+      <c r="L71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>SRE Jedi DC Even Patching</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Shared servers</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Last</v>
+      </c>
+      <c r="G72" t="str">
+        <v>09:30 AM - 12:30 PM</v>
+      </c>
+      <c r="H72" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I72">
+        <v>45652</v>
+      </c>
+      <c r="J72" t="str">
+        <v/>
+      </c>
+      <c r="K72" t="str">
+        <v/>
+      </c>
+      <c r="L72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>TPG dev patching</v>
+      </c>
+      <c r="B73" t="str">
+        <v>TPG</v>
+      </c>
+      <c r="C73" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D73" t="str">
+        <v>Saturday</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F73" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G73" t="str">
+        <v>07:30 AM - 09:30 AM</v>
+      </c>
+      <c r="H73" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I73">
+        <v>45640</v>
+      </c>
+      <c r="J73" t="str">
+        <v/>
+      </c>
+      <c r="K73" t="str">
+        <v/>
+      </c>
+      <c r="L73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>TPG PROD01 patching</v>
+      </c>
+      <c r="B74" t="str">
+        <v>TPG</v>
+      </c>
+      <c r="C74" t="str">
+        <v>PROD</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F74" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G74" t="str">
+        <v>08:30 PM - 10:30 PM</v>
+      </c>
+      <c r="H74" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I74">
+        <v>45641</v>
+      </c>
+      <c r="J74" t="str">
+        <v/>
+      </c>
+      <c r="K74" t="str">
+        <v/>
+      </c>
+      <c r="L74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>TPG PROD02 patching</v>
+      </c>
+      <c r="B75" t="str">
+        <v>TPG</v>
+      </c>
+      <c r="C75" t="str">
+        <v>PROD</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Last</v>
+      </c>
+      <c r="G75" t="str">
+        <v>08:30 PM - 10:30 PM</v>
+      </c>
+      <c r="H75" t="str">
+        <v>scheduled</v>
+      </c>
+      <c r="I75">
+        <v>45655</v>
+      </c>
+      <c r="J75" t="str">
+        <v/>
+      </c>
+      <c r="K75" t="str">
+        <v/>
+      </c>
+      <c r="L75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Impress Dev patching</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Impress</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Dev</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F76" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G76" t="str">
+        <v>02:00 PM - 04:00 PM</v>
+      </c>
+      <c r="H76" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I76">
+        <v>45638</v>
+      </c>
+      <c r="J76" t="str">
+        <v/>
+      </c>
+      <c r="K76" t="str">
+        <v/>
+      </c>
+      <c r="L76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Impress prod01 patching</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Impress</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F77" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G77" t="str">
+        <v>11:30 AM - 03:30 PM</v>
+      </c>
+      <c r="H77" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I77">
+        <v>45516</v>
+      </c>
+      <c r="J77" t="str">
+        <v/>
+      </c>
+      <c r="K77" t="str">
+        <v/>
+      </c>
+      <c r="L77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Impress prod02 patching</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Impress</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F78" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G78" t="str">
+        <v>11:30 AM - 03:30 PM</v>
+      </c>
+      <c r="H78" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I78">
+        <v>45641</v>
+      </c>
+      <c r="J78" t="str">
+        <v/>
+      </c>
+      <c r="K78" t="str">
+        <v/>
+      </c>
+      <c r="L78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Respond Stage environment OS Patching activity</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Respond</v>
+      </c>
+      <c r="C79" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D79" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F79" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G79" t="str">
+        <v>05:30 PM - 07:30 PM</v>
+      </c>
+      <c r="H79" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I79">
+        <v>45608</v>
+      </c>
+      <c r="J79" t="str">
+        <v/>
+      </c>
+      <c r="K79" t="str">
+        <v/>
+      </c>
+      <c r="L79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v xml:space="preserve">Respond SaaS(Sydney) Production OS Patching </v>
+      </c>
+      <c r="B80" t="str">
+        <v>Respond</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Monday</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F80" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G80" t="str">
+        <v>06:30 PM - 08:30 PM</v>
+      </c>
+      <c r="H80" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I80">
+        <v>45649</v>
+      </c>
+      <c r="J80" t="str">
+        <v/>
+      </c>
+      <c r="K80" t="str">
+        <v/>
+      </c>
+      <c r="L80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Respond SaaS(N.Virginia) Production OS Patching</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Respond</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F81" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G81" t="str">
+        <v>01:30 PM - 03:30 PM</v>
+      </c>
+      <c r="H81" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I81">
+        <v>45651</v>
+      </c>
+      <c r="J81" t="str">
+        <v/>
+      </c>
+      <c r="K81" t="str">
+        <v/>
+      </c>
+      <c r="L81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Respond SaaS(London) Production OS Patching</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Respond</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F82" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G82" t="str">
+        <v xml:space="preserve">04:30 AM - 06:30 AM </v>
+      </c>
+      <c r="H82" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I82">
+        <v>45648</v>
+      </c>
+      <c r="J82" t="str">
+        <v/>
+      </c>
+      <c r="K82" t="str">
+        <v/>
+      </c>
+      <c r="L82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Axxos UK Stage Patching</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Axxos</v>
+      </c>
+      <c r="C83" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D83" t="str">
+        <v>Monday</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F83" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G83" t="str">
+        <v xml:space="preserve">10:30 AM - 02:30 PM </v>
+      </c>
+      <c r="H83" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I83">
+        <v>45642</v>
+      </c>
+      <c r="J83" t="str">
+        <v/>
+      </c>
+      <c r="K83" t="str">
+        <v/>
+      </c>
+      <c r="L83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Axxos US Stage Patching</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Axxos</v>
+      </c>
+      <c r="C84" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D84" t="str">
+        <v>Monday</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F84" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G84" t="str">
+        <v>11:30 AM - 03:30 PM</v>
+      </c>
+      <c r="H84" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I84">
+        <v>45642</v>
+      </c>
+      <c r="J84" t="str">
+        <v/>
+      </c>
+      <c r="K84" t="str">
+        <v/>
+      </c>
+      <c r="L84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Axxos UK Production Patching</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Axxos</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Monday</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F85" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G85" t="str">
+        <v xml:space="preserve">08:30 AM - 12:30 PM </v>
+      </c>
+      <c r="H85" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I85">
+        <v>45649</v>
+      </c>
+      <c r="J85" t="str">
+        <v/>
+      </c>
+      <c r="K85" t="str">
+        <v/>
+      </c>
+      <c r="L85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Axxos US Production Patching</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Axxos</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Monday</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F86" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G86" t="str">
+        <v xml:space="preserve">09:30 AM - 01:30 PM </v>
+      </c>
+      <c r="H86" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I86">
+        <v>45649</v>
+      </c>
+      <c r="J86" t="str">
+        <v/>
+      </c>
+      <c r="K86" t="str">
+        <v/>
+      </c>
+      <c r="L86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Paragon Dev Patching</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Paragon R&amp;S</v>
+      </c>
+      <c r="C87" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D87" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F87" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G87" t="str">
+        <v>12:30 AM - 01:30 AM</v>
+      </c>
+      <c r="H87" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I87">
+        <v>45638</v>
+      </c>
+      <c r="J87" t="str">
+        <v/>
+      </c>
+      <c r="K87" t="str">
+        <v/>
+      </c>
+      <c r="L87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Paragon R&amp;S (UK-2) Production OS Patching</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Paragon R&amp;S</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F88" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G88" t="str">
+        <v>08:00 AM - 10:00 AM</v>
+      </c>
+      <c r="H88" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I88">
+        <v>45644</v>
+      </c>
+      <c r="J88" t="str">
+        <v/>
+      </c>
+      <c r="K88" t="str">
+        <v/>
+      </c>
+      <c r="L88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Paragon  R&amp;S (UK-3) Production OS Patching</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Paragon R&amp;S</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Saturday</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F89" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G89" t="str">
+        <v>02:30 AM - 03:30 AM</v>
+      </c>
+      <c r="H89" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I89">
+        <v>45647</v>
+      </c>
+      <c r="J89" t="str">
+        <v/>
+      </c>
+      <c r="K89" t="str">
+        <v/>
+      </c>
+      <c r="L89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Paragon R&amp;S (UK) Production OS Patching</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Paragon R&amp;S</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Last</v>
+      </c>
+      <c r="G90" t="str">
+        <v>04:30 AM - 08:30 AM</v>
+      </c>
+      <c r="H90" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I90">
+        <v>45655</v>
+      </c>
+      <c r="J90" t="str">
+        <v/>
+      </c>
+      <c r="K90" t="str">
+        <v/>
+      </c>
+      <c r="L90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Paragon  R&amp;S (ANZ)Production OS Patching</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Paragon R&amp;S</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Last</v>
+      </c>
+      <c r="G91" t="str">
+        <v>11:30 AM - 12:30 PM</v>
+      </c>
+      <c r="H91" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I91">
+        <v>45655</v>
+      </c>
+      <c r="J91" t="str">
+        <v/>
+      </c>
+      <c r="K91" t="str">
+        <v/>
+      </c>
+      <c r="L91" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Paragon  R&amp;S (US) Production OS Patching</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Paragon R&amp;S</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Last</v>
+      </c>
+      <c r="G92" t="str">
+        <v>08:30 AM - 11:30 AM</v>
+      </c>
+      <c r="H92" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I92">
+        <v>45655</v>
+      </c>
+      <c r="J92" t="str">
+        <v/>
+      </c>
+      <c r="K92" t="str">
+        <v/>
+      </c>
+      <c r="L92" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Dev002 Odd DC patching</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Dev DC</v>
+      </c>
+      <c r="C93" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D93" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F93" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G93" t="str">
+        <v>02:00 PM - 04:00 PM</v>
+      </c>
+      <c r="H93" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I93">
+        <v>45638</v>
+      </c>
+      <c r="J93" t="str">
+        <v/>
+      </c>
+      <c r="K93" t="str">
+        <v/>
+      </c>
+      <c r="L93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Dev002 Dev Even DC patching</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Dev DC</v>
+      </c>
+      <c r="C94" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D94" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F94" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G94" t="str">
+        <v>05:00 PM - 07:00 PM</v>
+      </c>
+      <c r="H94" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I94">
+        <v>45639</v>
+      </c>
+      <c r="J94" t="str">
+        <v/>
+      </c>
+      <c r="K94" t="str">
+        <v/>
+      </c>
+      <c r="L94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Prod002 Prod Odd DC patching</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Prod002 DC</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F95" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G95" t="str">
+        <v>07:00 AM - 09:00 AM</v>
+      </c>
+      <c r="H95" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I95">
+        <v>45645</v>
+      </c>
+      <c r="J95" t="str">
+        <v/>
+      </c>
+      <c r="K95" t="str">
+        <v/>
+      </c>
+      <c r="L95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Prod002 Prod Even DC patching</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Prod002 DC</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F96" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G96" t="str">
+        <v>08:30 AM - 10:30 AM</v>
+      </c>
+      <c r="H96" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I96">
+        <v>45646</v>
+      </c>
+      <c r="J96" t="str">
+        <v/>
+      </c>
+      <c r="K96" t="str">
+        <v/>
+      </c>
+      <c r="L96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Prod002 Prod Anze DC patching</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Prod002 DC</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Saturday</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F97" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G97" t="str">
+        <v>10:00 AM - 11:00 AM</v>
+      </c>
+      <c r="H97" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I97">
+        <v>45647</v>
+      </c>
+      <c r="J97" t="str">
+        <v/>
+      </c>
+      <c r="K97" t="str">
+        <v/>
+      </c>
+      <c r="L97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Paragon FlexiPod UAT patching</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Paragon FlexiPod</v>
+      </c>
+      <c r="C98" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D98" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F98" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G98" t="str">
+        <v>08:30 AM - 10:30 AM</v>
+      </c>
+      <c r="H98" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I98">
+        <v>45608</v>
+      </c>
+      <c r="J98" t="str">
+        <v/>
+      </c>
+      <c r="K98" t="str">
+        <v/>
+      </c>
+      <c r="L98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Paragon FlexiPod PROD Web Servers patching</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Paragon FlexiPod</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F99" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G99" t="str">
+        <v>07:00 AM - 09:30 AM</v>
+      </c>
+      <c r="H99" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I99">
+        <v>45646</v>
+      </c>
+      <c r="J99" t="str">
+        <v/>
+      </c>
+      <c r="K99" t="str">
+        <v/>
+      </c>
+      <c r="L99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Paragon HDX WEB01+APP01 Servers Patching</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Paragon HDX</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F100" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G100" t="str">
+        <v>07:30 AM - 09:30 AM</v>
+      </c>
+      <c r="H100" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I100">
+        <v>45644</v>
+      </c>
+      <c r="J100" t="str">
+        <v/>
+      </c>
+      <c r="K100" t="str">
+        <v/>
+      </c>
+      <c r="L100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Paragon HDX WEB02+APP02 Servers Patching</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Paragon HDX</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F101" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G101" t="str">
+        <v>07:30 AM - 09:30 AM</v>
+      </c>
+      <c r="H101" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I101">
+        <v>45645</v>
+      </c>
+      <c r="J101" t="str">
+        <v/>
+      </c>
+      <c r="K101" t="str">
+        <v/>
+      </c>
+      <c r="L101" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Paragon HDX RDS+SQLHA Servers Patching</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Paragon HDX</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F102" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G102" t="str">
+        <v>06:30 AM - 08:30 AM</v>
+      </c>
+      <c r="H102" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I102">
+        <v>45641</v>
+      </c>
+      <c r="J102" t="str">
+        <v/>
+      </c>
+      <c r="K102" t="str">
+        <v/>
+      </c>
+      <c r="L102" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v xml:space="preserve">Paragon HDX UAT Patching </v>
+      </c>
+      <c r="B103" t="str">
+        <v>Paragon HDX</v>
+      </c>
+      <c r="C103" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D103" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E103" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F103" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G103" t="str">
+        <v>07:30 AM - 09:30 AM</v>
+      </c>
+      <c r="H103" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I103">
+        <v>45608</v>
+      </c>
+      <c r="J103" t="str">
+        <v/>
+      </c>
+      <c r="K103" t="str">
+        <v/>
+      </c>
+      <c r="L103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Lascom Staging Patching</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Lascom</v>
+      </c>
+      <c r="C104" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D104" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="E104" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F104" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G104" t="str">
+        <v>07:30 AM - 09:30 AM</v>
+      </c>
+      <c r="H104" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I104">
+        <v>45638</v>
+      </c>
+      <c r="J104" t="str">
+        <v/>
+      </c>
+      <c r="K104" t="str">
+        <v/>
+      </c>
+      <c r="L104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Lascom Prod US Patching</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Lascom</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E105" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F105" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G105" t="str">
+        <v>07:30 AM - 09:30 AM</v>
+      </c>
+      <c r="H105" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I105">
+        <v>45644</v>
+      </c>
+      <c r="J105" t="str">
+        <v/>
+      </c>
+      <c r="K105" t="str">
+        <v/>
+      </c>
+      <c r="L105" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Lascom Prod EU Patching</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Lascom</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F106" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G106" t="str">
+        <v>07:30 AM - 09:30 AM</v>
+      </c>
+      <c r="H106" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I106">
+        <v>45645</v>
+      </c>
+      <c r="J106" t="str">
+        <v/>
+      </c>
+      <c r="K106" t="str">
+        <v/>
+      </c>
+      <c r="L106" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>CRM DEV AWS Patching Environment</v>
+      </c>
+      <c r="B107" t="str">
+        <v>CRM</v>
+      </c>
+      <c r="C107" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D107" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E107" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F107" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G107" t="str">
+        <v>09:45 AM - 11:45 AM</v>
+      </c>
+      <c r="H107" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I107">
+        <v>45644</v>
+      </c>
+      <c r="J107" t="str">
+        <v/>
+      </c>
+      <c r="K107" t="str">
+        <v/>
+      </c>
+      <c r="L107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>CRM DEV Azure Patching Environment</v>
+      </c>
+      <c r="B108" t="str">
+        <v>CRM</v>
+      </c>
+      <c r="C108" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D108" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E108" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F108" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G108" t="str">
+        <v>09:45 AM - 11:45 AM</v>
+      </c>
+      <c r="H108" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I108">
+        <v>45644</v>
+      </c>
+      <c r="J108" t="str">
+        <v/>
+      </c>
+      <c r="K108" t="str">
+        <v/>
+      </c>
+      <c r="L108" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>CRM Prod Azure Patching Environment</v>
+      </c>
+      <c r="B109" t="str">
+        <v>CRM</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E109" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F109" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G109" t="str">
+        <v>09:45 AM - 11:45 AM</v>
+      </c>
+      <c r="H109" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I109">
+        <v>45651</v>
+      </c>
+      <c r="J109" t="str">
+        <v/>
+      </c>
+      <c r="K109" t="str">
+        <v/>
+      </c>
+      <c r="L109" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>CRM Prod AWS Patching Environment</v>
+      </c>
+      <c r="B110" t="str">
+        <v>CRM</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="E110" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F110" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G110" t="str">
+        <v>09:45 AM - 11:45 AM</v>
+      </c>
+      <c r="H110" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I110">
+        <v>45651</v>
+      </c>
+      <c r="J110" t="str">
+        <v/>
+      </c>
+      <c r="K110" t="str">
+        <v/>
+      </c>
+      <c r="L110" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Swords Dev Patching</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Swords</v>
+      </c>
+      <c r="C111" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D111" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="E111" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F111" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G111" t="str">
+        <v>09:30 AM - 11:30 AM</v>
+      </c>
+      <c r="H111" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I111">
+        <v>45638</v>
+      </c>
+      <c r="J111" t="str">
+        <v/>
+      </c>
+      <c r="K111" t="str">
+        <v/>
+      </c>
+      <c r="L111" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Swords Prod Patching</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Swords</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E112" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F112" t="str">
+        <v>4th</v>
+      </c>
+      <c r="G112" t="str">
+        <v>06:00 AM - 10:00 AM</v>
+      </c>
+      <c r="H112" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I112">
+        <v>45648</v>
+      </c>
+      <c r="J112" t="str">
+        <v/>
+      </c>
+      <c r="K112" t="str">
+        <v/>
+      </c>
+      <c r="L112" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v xml:space="preserve">PATCH OEE Prod patching </v>
+      </c>
+      <c r="B113" t="str">
+        <v>PATCH OEE</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Prod</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="E113" t="str">
+        <v>monthly</v>
+      </c>
+      <c r="F113" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G113" t="str">
+        <v xml:space="preserve">04:00 PM - 06:00 PM </v>
+      </c>
+      <c r="H113" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I113">
+        <v>45641</v>
+      </c>
+      <c r="J113" t="str">
+        <v/>
+      </c>
+      <c r="K113" t="str">
+        <v/>
+      </c>
+      <c r="L113" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v xml:space="preserve">PATCH OEE DEV patching </v>
+      </c>
+      <c r="B114" t="str">
+        <v>PATCH OEE</v>
+      </c>
+      <c r="C114" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D114" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="E114" t="str">
+        <v>monthly</v>
+      </c>
+      <c r="F114" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="G114" t="str">
+        <v xml:space="preserve">05:00 PM - 06:00 PM </v>
+      </c>
+      <c r="H114" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I114">
+        <v>45639</v>
+      </c>
+      <c r="J114" t="str">
+        <v/>
+      </c>
+      <c r="K114" t="str">
+        <v/>
+      </c>
+      <c r="L114" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v xml:space="preserve">EXANTA Dev Patching </v>
+      </c>
+      <c r="B115" t="str">
+        <v>EXANTA</v>
+      </c>
+      <c r="C115" t="str">
+        <v xml:space="preserve">Dev </v>
+      </c>
+      <c r="D115" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F115" t="str">
+        <v xml:space="preserve">2nd </v>
+      </c>
+      <c r="G115" t="str">
+        <v xml:space="preserve">05:00 PM - 07:00 PM </v>
+      </c>
+      <c r="H115" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I115">
+        <v>45638</v>
+      </c>
+      <c r="J115" t="str">
+        <v/>
+      </c>
+      <c r="K115" t="str">
+        <v/>
+      </c>
+      <c r="L115" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v xml:space="preserve">EXANTA Production Patching </v>
+      </c>
+      <c r="B116" t="str">
+        <v>EXANTA</v>
+      </c>
+      <c r="C116" t="str">
+        <v>PROD</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Saturday</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Monthy</v>
+      </c>
+      <c r="F116" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="G116" t="str">
+        <v xml:space="preserve">12:20 PM - 04:30 PM </v>
+      </c>
+      <c r="H116" t="str">
+        <v>Scheduled</v>
+      </c>
+      <c r="I116">
+        <v>45647</v>
+      </c>
+      <c r="J116" t="str">
+        <v/>
+      </c>
+      <c r="K116" t="str">
+        <v/>
+      </c>
+      <c r="L116" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L116"/>
   </ignoredErrors>
 </worksheet>
 </file>